--- a/Jogos_do_Dia/2023-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="G2" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -695,28 +695,28 @@
         <v>2.72</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF2" t="n">
         <v>1.9</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -805,28 +805,28 @@
         <v>1.17</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.89</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.51</v>
+        <v>2.83</v>
       </c>
       <c r="I4" t="n">
         <v>1.09</v>
@@ -876,7 +876,7 @@
         <v>2.25</v>
       </c>
       <c r="N4" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -915,28 +915,28 @@
         <v>3.36</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.64</v>
+        <v>2.83</v>
       </c>
       <c r="G5" t="n">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -983,10 +983,10 @@
         <v>2.9</v>
       </c>
       <c r="M5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
         <v>1.48</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>3.94</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.96</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="N6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1135,28 +1135,28 @@
         <v>2.83</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.49</v>
+        <v>2.53</v>
       </c>
       <c r="G7" t="n">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>2.47</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>3.38</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>4.12</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.7</v>
       </c>
       <c r="M8" t="n">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="O8" t="n">
         <v>1.48</v>
@@ -1355,28 +1355,28 @@
         <v>2.03</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1465,28 +1465,28 @@
         <v>2.48</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1536,7 +1536,7 @@
         <v>1.84</v>
       </c>
       <c r="N10" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1575,28 +1575,28 @@
         <v>0.62</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1685,28 +1685,28 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="12">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="H13" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>2.93</v>
       </c>
       <c r="M13" t="n">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
@@ -1905,25 +1905,25 @@
         <v>2.72</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>3.04</v>
       </c>
       <c r="M14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O14" t="n">
         <v>1.43</v>
@@ -2015,25 +2015,25 @@
         <v>2.85</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -2592,167 +2592,167 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>45042.5</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.300000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>2.95</v>
       </c>
       <c r="H20" t="n">
-        <v>1.25</v>
+        <v>4.22</v>
       </c>
       <c r="I20" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="K20" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="L20" t="n">
-        <v>4.33</v>
+        <v>2.48</v>
       </c>
       <c r="M20" t="n">
-        <v>1.59</v>
+        <v>2.45</v>
       </c>
       <c r="N20" t="n">
-        <v>1.99</v>
+        <v>1.51</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>2.41</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>1.18</v>
       </c>
       <c r="T20" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="V20" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG20" t="n">
         <v>2.25</v>
       </c>
-      <c r="X20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45042.50347222222</v>
+        <v>45042.5</v>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Varaždin</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.25</v>
       </c>
-      <c r="G21" t="n">
-        <v>5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="N21" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -2761,138 +2761,138 @@
         <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="U21" t="n">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>2.73</v>
+        <v>1.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="X21" t="n">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.57</v>
+        <v>2.27</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45042.52083333334</v>
+        <v>45042.50347222222</v>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Zbrojovka Brno</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Varaždin</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.02</v>
+        <v>1.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="U22" t="n">
-        <v>1.61</v>
+        <v>3.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.07</v>
+        <v>2.73</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="X22" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.7</v>
+        <v>3.57</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2910,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2933,40 +2933,40 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="H23" t="n">
-        <v>2.44</v>
+        <v>2.98</v>
       </c>
       <c r="I23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="K23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="N23" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.38</v>
@@ -2975,43 +2975,43 @@
         <v>2.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="T23" t="n">
         <v>1.32</v>
       </c>
       <c r="U23" t="n">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="W23" t="n">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.16</v>
+        <v>2.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -3020,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="24">
@@ -3043,22 +3043,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.41</v>
+        <v>2.79</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="H24" t="n">
-        <v>2.52</v>
+        <v>2.11</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,70 +3073,70 @@
         <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
         <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="S24" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="U24" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="X24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Y24" t="n">
         <v>1.51</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="25">
@@ -3153,320 +3153,320 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.31</v>
+        <v>1.97</v>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="H25" t="n">
-        <v>2.64</v>
+        <v>3.11</v>
       </c>
       <c r="I25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.39</v>
       </c>
-      <c r="L25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P25" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="T25" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V25" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="X25" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.84</v>
+        <v>3.18</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AG25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.41</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45042.54166666666</v>
+        <v>45042.52083333334</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.65</v>
+        <v>2.11</v>
       </c>
       <c r="G26" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="H26" t="n">
-        <v>1.83</v>
+        <v>2.81</v>
       </c>
       <c r="I26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.07</v>
       </c>
-      <c r="J26" t="n">
-        <v>9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="X26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
         <v>1.3</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y26" t="n">
+      <c r="AF26" t="n">
         <v>1.61</v>
       </c>
-      <c r="Z26" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AG26" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
         <v>45042.54166666666</v>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V27" t="n">
-        <v>1.08</v>
+        <v>1.93</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>1.93</v>
       </c>
       <c r="X27" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.66</v>
+        <v>3.23</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="28">
@@ -3479,80 +3479,80 @@
         <v>45042.54166666666</v>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.34</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W28" t="n">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="X28" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.51</v>
+        <v>2.66</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>3.89</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="N29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3656,13 +3656,13 @@
         <v>1.31</v>
       </c>
       <c r="X29" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="I31" t="n">
         <v>1.03</v>
@@ -3843,10 +3843,10 @@
         <v>2.91</v>
       </c>
       <c r="M31" t="n">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="N31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O31" t="n">
         <v>1.46</v>
@@ -3885,22 +3885,22 @@
         <v>4.17</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="G33" t="n">
-        <v>3.95</v>
+        <v>3.48</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>4.19</v>
       </c>
       <c r="I33" t="n">
         <v>1.04</v>
@@ -4063,10 +4063,10 @@
         <v>4.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="N33" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4105,28 +4105,28 @@
         <v>3.79</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG33" t="n">
         <v>1.83</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="34">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G34" t="n">
-        <v>4.35</v>
+        <v>3.82</v>
       </c>
       <c r="H34" t="n">
-        <v>7.5</v>
+        <v>8.81</v>
       </c>
       <c r="I34" t="n">
         <v>1.08</v>
@@ -4173,10 +4173,10 @@
         <v>2.9</v>
       </c>
       <c r="M34" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="N34" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="G35" t="n">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4283,10 +4283,10 @@
         <v>2.95</v>
       </c>
       <c r="M35" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="N35" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
         <v>1.5</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>4.2</v>
+        <v>5.08</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4506,7 +4506,7 @@
         <v>2.1</v>
       </c>
       <c r="N37" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>3.81</v>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="H38" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4613,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="N38" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4646,13 +4646,13 @@
         <v>2.77</v>
       </c>
       <c r="X38" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -4702,52 +4702,52 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H39" t="n">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.85</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="M39" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="N39" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V39" t="n">
         <v>1.91</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.4</v>
+        <v>5.04</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H40" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4833,10 +4833,10 @@
         <v>4.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N40" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.31</v>
       </c>
       <c r="I41" t="n">
         <v>1.04</v>
@@ -4943,10 +4943,10 @@
         <v>4.2</v>
       </c>
       <c r="M41" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N41" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -4985,28 +4985,28 @@
         <v>3.81</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="42">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="G42" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="H42" t="n">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="I42" t="n">
         <v>1.02</v>
@@ -5053,10 +5053,10 @@
         <v>3.3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="N42" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -5095,28 +5095,28 @@
         <v>3.17</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="43">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="G43" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="H43" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="I43" t="n">
         <v>1.03</v>
@@ -5163,10 +5163,10 @@
         <v>4.45</v>
       </c>
       <c r="M43" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="N43" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="G44" t="n">
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="H44" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="I44" t="n">
         <v>1.06</v>
@@ -5273,10 +5273,10 @@
         <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N44" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O44" t="n">
         <v>1.4</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="H46" t="n">
-        <v>5.1</v>
+        <v>4.73</v>
       </c>
       <c r="I46" t="n">
         <v>1.03</v>
@@ -5493,10 +5493,10 @@
         <v>4.9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="N46" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -5585,10 +5585,10 @@
         <v>2.13</v>
       </c>
       <c r="G47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.66</v>
       </c>
       <c r="I47" t="n">
         <v>1.07</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="N47" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -5645,25 +5645,25 @@
         <v>2.57</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="G48" t="n">
-        <v>4.5</v>
+        <v>4.32</v>
       </c>
       <c r="H48" t="n">
-        <v>6.6</v>
+        <v>7.83</v>
       </c>
       <c r="I48" t="n">
         <v>1.04</v>
@@ -5713,10 +5713,10 @@
         <v>3.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="N48" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="O48" t="n">
         <v>1.36</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.35</v>
+        <v>4.63</v>
       </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H49" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="I49" t="n">
         <v>1.05</v>
@@ -5823,10 +5823,10 @@
         <v>3.6</v>
       </c>
       <c r="M49" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N49" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O49" t="n">
         <v>1.4</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G51" t="n">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="H51" t="n">
-        <v>5.25</v>
+        <v>4.6</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6043,10 +6043,10 @@
         <v>3.25</v>
       </c>
       <c r="M51" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="N51" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O51" t="n">
         <v>1.42</v>
@@ -6085,25 +6085,25 @@
         <v>2.97</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="G52" t="n">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
-        <v>4.36</v>
+        <v>3.45</v>
       </c>
       <c r="I52" t="n">
         <v>1.07</v>
@@ -6153,10 +6153,10 @@
         <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="N52" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="O52" t="n">
         <v>1.46</v>
@@ -6195,28 +6195,28 @@
         <v>3.12</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,10 +680,10 @@
         <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
         <v>1.39</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.83</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
         <v>1.09</v>
@@ -873,10 +873,10 @@
         <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -900,10 +900,10 @@
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>1.88</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.83</v>
+        <v>2.96</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -983,10 +983,10 @@
         <v>2.9</v>
       </c>
       <c r="M5" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="N5" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="O5" t="n">
         <v>1.48</v>
@@ -1010,10 +1010,10 @@
         <v>1.42</v>
       </c>
       <c r="V5" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
         <v>1.13</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,7 +1093,7 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
@@ -1120,10 +1120,10 @@
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
         <v>1.31</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="N7" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1230,10 +1230,10 @@
         <v>1.47</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="X7" t="n">
         <v>1.55</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.75</v>
@@ -1313,10 +1313,10 @@
         <v>2.7</v>
       </c>
       <c r="M8" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.48</v>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>0.9</v>
@@ -1450,7 +1450,7 @@
         <v>1.24</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="N10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1560,10 +1560,10 @@
         <v>1.29</v>
       </c>
       <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
         <v>3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0.62</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.1</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.9</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1646,7 +1646,7 @@
         <v>2.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.48</v>
@@ -1670,7 +1670,7 @@
         <v>1.41</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1732,25 +1732,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M12" t="n">
         <v>2.35</v>
@@ -1759,16 +1759,16 @@
         <v>1.57</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
         <v>1.15</v>
@@ -1795,28 +1795,28 @@
         <v>2.98</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>2.93</v>
       </c>
       <c r="M13" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="N13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
         <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.13</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>3.04</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N14" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="O14" t="n">
         <v>1.43</v>
@@ -2049,80 +2049,80 @@
         <v>45042.45833333334</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Métlaoui</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V15" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.82</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.18</v>
+        <v>0.77</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2262,23 +2262,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
         <v>45042.45833333334</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EO Sidi Bouzid</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AS Slimane</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2330,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.72</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2372,33 +2372,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
         <v>45042.45833333334</v>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>EO Sidi Bouzid</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>AS Slimane</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2440,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>0.72</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2482,221 +2482,221 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45042.45833333334</v>
+        <v>45042.5</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Métlaoui</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="X19" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>45042.5</v>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="H20" t="n">
-        <v>4.22</v>
+        <v>3.74</v>
       </c>
       <c r="I20" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="L20" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="M20" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N20" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.18</v>
       </c>
-      <c r="T20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.17</v>
-      </c>
       <c r="Z20" t="n">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4.72</v>
+        <v>5.45</v>
       </c>
       <c r="H21" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.02</v>
@@ -2743,10 +2743,10 @@
         <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O21" t="n">
         <v>1.31</v>
@@ -2832,25 +2832,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.62</v>
@@ -2859,19 +2859,19 @@
         <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T22" t="n">
         <v>1.09</v>
@@ -2895,28 +2895,28 @@
         <v>3.57</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="23">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G23" t="n">
-        <v>3.04</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.98</v>
+        <v>3.56</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="N23" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="O23" t="n">
         <v>1.38</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF23" t="n">
         <v>1.54</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="G24" t="n">
-        <v>3.06</v>
+        <v>3.52</v>
       </c>
       <c r="H24" t="n">
-        <v>2.11</v>
+        <v>2.42</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="N24" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O24" t="n">
         <v>1.38</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="G25" t="n">
-        <v>3.02</v>
+        <v>3.54</v>
       </c>
       <c r="H25" t="n">
-        <v>3.11</v>
+        <v>2.87</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3183,10 +3183,10 @@
         <v>3.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="N25" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O25" t="n">
         <v>1.39</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.11</v>
+        <v>2.23</v>
       </c>
       <c r="G26" t="n">
-        <v>3.02</v>
+        <v>3.42</v>
       </c>
       <c r="H26" t="n">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="I26" t="n">
         <v>1.08</v>
@@ -3293,10 +3293,10 @@
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="O26" t="n">
         <v>1.47</v>
@@ -3344,7 +3344,7 @@
         <v>2.49</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE26" t="n">
         <v>1.3</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.17</v>
+        <v>3.96</v>
       </c>
       <c r="G27" t="n">
-        <v>2.99</v>
+        <v>3.48</v>
       </c>
       <c r="H27" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="I27" t="n">
         <v>1.07</v>
@@ -3403,10 +3403,10 @@
         <v>3.1</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="N27" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3549,10 +3549,10 @@
         <v>1.36</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="G29" t="n">
-        <v>3.52</v>
+        <v>4.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.89</v>
+        <v>5.4</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="N29" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="N30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G31" t="n">
         <v>3.3</v>
       </c>
-      <c r="G31" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H31" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="I31" t="n">
         <v>1.03</v>
@@ -3843,10 +3843,10 @@
         <v>2.91</v>
       </c>
       <c r="M31" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="N31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.46</v>
@@ -3932,43 +3932,43 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G32" t="n">
         <v>3.3</v>
       </c>
       <c r="H32" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="N32" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>1.85</v>
@@ -3995,28 +3995,28 @@
         <v>3.08</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="33">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="G33" t="n">
-        <v>3.48</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="n">
-        <v>4.19</v>
+        <v>4.66</v>
       </c>
       <c r="I33" t="n">
         <v>1.04</v>
@@ -4063,10 +4063,10 @@
         <v>4.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4114,7 +4114,7 @@
         <v>3.35</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE33" t="n">
         <v>1.25</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.82</v>
+        <v>4.84</v>
       </c>
       <c r="H34" t="n">
-        <v>8.81</v>
+        <v>10.5</v>
       </c>
       <c r="I34" t="n">
         <v>1.08</v>
@@ -4173,10 +4173,10 @@
         <v>2.9</v>
       </c>
       <c r="M34" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="N34" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="G35" t="n">
-        <v>3.06</v>
+        <v>3.52</v>
       </c>
       <c r="H35" t="n">
-        <v>4.14</v>
+        <v>4.18</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4283,10 +4283,10 @@
         <v>2.95</v>
       </c>
       <c r="M35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="O35" t="n">
         <v>1.5</v>
@@ -4420,19 +4420,19 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="Y36" t="n">
         <v>1.17</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.51</v>
+        <v>2.59</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="H37" t="n">
-        <v>5.08</v>
+        <v>4.02</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4503,10 +4503,10 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N37" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.81</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="H38" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4613,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="N38" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G39" t="n">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="I39" t="n">
         <v>1.07</v>
@@ -4765,28 +4765,28 @@
         <v>3.11</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="40">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.04</v>
+        <v>5.95</v>
       </c>
       <c r="G40" t="n">
-        <v>3.95</v>
+        <v>4.54</v>
       </c>
       <c r="H40" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4833,10 +4833,10 @@
         <v>4.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N40" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="H41" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="I41" t="n">
         <v>1.04</v>
@@ -4943,10 +4943,10 @@
         <v>4.2</v>
       </c>
       <c r="M41" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="N41" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="G42" t="n">
-        <v>3.02</v>
+        <v>3.42</v>
       </c>
       <c r="H42" t="n">
-        <v>2.59</v>
+        <v>2.71</v>
       </c>
       <c r="I42" t="n">
         <v>1.02</v>
@@ -5053,10 +5053,10 @@
         <v>3.3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="N42" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="G43" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="I43" t="n">
         <v>1.03</v>
@@ -5163,10 +5163,10 @@
         <v>4.45</v>
       </c>
       <c r="M43" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="N43" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="G44" t="n">
-        <v>4.25</v>
+        <v>4.02</v>
       </c>
       <c r="H44" t="n">
-        <v>6.6</v>
+        <v>5.45</v>
       </c>
       <c r="I44" t="n">
         <v>1.06</v>
@@ -5273,10 +5273,10 @@
         <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="N44" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="O44" t="n">
         <v>1.4</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="G46" t="n">
-        <v>4.04</v>
+        <v>4.68</v>
       </c>
       <c r="H46" t="n">
-        <v>4.73</v>
+        <v>5.75</v>
       </c>
       <c r="I46" t="n">
         <v>1.03</v>
@@ -5493,10 +5493,10 @@
         <v>4.9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="N46" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -5585,10 +5585,10 @@
         <v>2.13</v>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.66</v>
       </c>
       <c r="I47" t="n">
         <v>1.07</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="G48" t="n">
-        <v>4.32</v>
+        <v>4.74</v>
       </c>
       <c r="H48" t="n">
-        <v>7.83</v>
+        <v>7.7</v>
       </c>
       <c r="I48" t="n">
         <v>1.04</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.63</v>
+        <v>4.9</v>
       </c>
       <c r="G49" t="n">
-        <v>3.65</v>
+        <v>3.98</v>
       </c>
       <c r="H49" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="I49" t="n">
         <v>1.05</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G51" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="H51" t="n">
-        <v>4.6</v>
+        <v>5.25</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="H52" t="n">
-        <v>3.45</v>
+        <v>4.36</v>
       </c>
       <c r="I52" t="n">
         <v>1.07</v>
